--- a/src/test/resources/testdata/OpenEMRData.xlsx
+++ b/src/test/resources/testdata/OpenEMRData.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/OpenEMRData.xlsx
+++ b/src/test/resources/testdata/OpenEMRData.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="validCredentialTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="addPatientTest" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>accountant</t>
+  </si>
+  <si>
+    <t>physician</t>
+  </si>
+  <si>
+    <t>receptionist</t>
+  </si>
+  <si>
+    <t>Dutch</t>
   </si>
 </sst>
 </file>
@@ -370,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,8 +435,37 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -435,7 +473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/src/test/resources/testdata/OpenEMRData.xlsx
+++ b/src/test/resources/testdata/OpenEMRData.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
